--- a/문서/작업일지.xlsx
+++ b/문서/작업일지.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>WooWon 판매 재고 프로젝트 작업일지</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,6 +31,10 @@
   </si>
   <si>
     <t>판매재고에 관련된 기능들을 이해하지못해 어느 부분에서 어느 값이 나오는지 등에 대한 함수 구현되지 않았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index를 구성, 부트스트랩 사용방법 등에 대한 공부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -419,6 +423,16 @@
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>42306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/문서/작업일지.xlsx
+++ b/문서/작업일지.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>WooWon 판매 재고 프로젝트 작업일지</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +35,10 @@
   </si>
   <si>
     <t>index를 구성, 부트스트랩 사용방법 등에 대한 공부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 80% 완료, 주문관리는 어떻게 처리해야 될지 고민, 주문 조회가 필요할까? 매출, 매입 관리가 있는데, 주문, 견적서 작성에서 인쇄 기능을 넣을수 있을까 고민</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -433,6 +437,16 @@
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>42310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
